--- a/xlsx/Toyota_intext.xlsx
+++ b/xlsx/Toyota_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="996">
   <si>
     <t>Toyota</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD%E5%90%8D%E7%A8%B1</t>
   </si>
   <si>
-    <t>商業名稱</t>
-  </si>
-  <si>
-    <t>政策_政策_混合動力車輛_Toyota</t>
+    <t>商业名称</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_Toyota</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B8%82%E5%85%AC%E5%8F%B8</t>
@@ -41,19 +41,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8%E4%BB%A3%E8%99%9F</t>
   </si>
   <si>
-    <t>股票代號</t>
+    <t>股票代号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
   </si>
   <si>
-    <t>東京證券交易所</t>
+    <t>东京证券交易所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
   </si>
   <si>
-    <t>紐約證券交易所</t>
+    <t>纽约证券交易所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E8%AF%81%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
@@ -65,19 +65,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E8%BE%A6%E4%BA%BA</t>
   </si>
   <si>
-    <t>創辦人</t>
+    <t>创办人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0%E4%BD%90%E5%90%89</t>
   </si>
   <si>
-    <t>豐田佐吉</t>
+    <t>丰田佐吉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0%E5%96%9C%E4%B8%80%E9%83%8E</t>
   </si>
   <si>
-    <t>豐田喜一郎</t>
+    <t>丰田喜一郎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%A1%A8%E8%91%A3%E4%BA%8B</t>
@@ -89,25 +89,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E9%95%B7</t>
   </si>
   <si>
-    <t>會長</t>
+    <t>会长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B1%B1%E7%94%B0%E7%AB%B9%E5%BF%97</t>
   </si>
   <si>
-    <t>內山田竹志</t>
+    <t>内山田竹志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E9%95%B7</t>
   </si>
   <si>
-    <t>社長</t>
+    <t>社长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0%E7%AB%A0%E7%94%B7</t>
   </si>
   <si>
-    <t>豐田章男</t>
+    <t>丰田章男</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -137,25 +137,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E9%83%BD</t>
   </si>
   <si>
-    <t>東京都</t>
+    <t>东京都</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E4%BA%AC%E5%8D%80</t>
   </si>
   <si>
-    <t>文京區</t>
+    <t>文京区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E6%A8%82</t>
   </si>
   <si>
-    <t>後樂</t>
+    <t>后乐</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E3%83%88%E3%83%A8%E3%82%BF%E8%87%AA%E5%8B%95%E8%BB%8A%E6%9D%B1%E4%BA%AC%E6%9C%AC%E7%A4%BE%E3%83%93%E3%83%AB</t>
   </si>
   <si>
-    <t>ja-トヨタ自動車東京本社ビル</t>
+    <t>ja-トヨタ自动车东京本社ビル</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8D%E5%8F%A4%E5%B1%8B%E5%B8%82</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%91%E5%8D%80</t>
   </si>
   <si>
-    <t>中村區</t>
+    <t>中村区</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%90%8D%E9%A7%85</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E5%9C%B0%E6%96%B9%E5%BB%A3%E5%A0%B4%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>中部地方廣場大廈</t>
+    <t>中部地方广场大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A</t>
@@ -191,13 +191,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E8%A3%BD%E9%80%A0</t>
   </si>
   <si>
-    <t>汽車製造</t>
+    <t>汽车制造</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%83</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E5%89%8D%E6%81%AF%E5%89%8D%E5%88%A9%E6%BD%A4</t>
   </si>
   <si>
-    <t>稅前息前利潤</t>
+    <t>税前息前利润</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
@@ -221,13 +221,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2</t>
   </si>
   <si>
-    <t>資產</t>
+    <t>资产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E6%9D%B1%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>股東權益</t>
+    <t>股东权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%8C%E5%BF%97</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%8F%9A%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>賽揚汽車</t>
+    <t>赛扬汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C</t>
@@ -251,33 +251,27 @@
     <t>https://ja.wikipedia.org/wiki/%E3%83%88%E3%83%A8%E3%82%BF%E8%87%AA%E5%8B%95%E8%BB%8A</t>
   </si>
   <si>
-    <t>ja-トヨタ自動車</t>
+    <t>ja-トヨタ自动车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E5%9C%8B%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>跨國公司</t>
+    <t>跨国公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E7%94%A2%E6%A5%AD</t>
   </si>
   <si>
-    <t>汽車產業</t>
+    <t>汽车产业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%9F%A5%E7%B8%A3</t>
   </si>
   <si>
-    <t>愛知縣</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0%E5%B8%82</t>
   </si>
   <si>
-    <t>豐田市</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
@@ -299,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%99%BC</t>
   </si>
   <si>
-    <t>大發</t>
+    <t>大发</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E9%87%8E%E5%85%AC%E5%8F%B8</t>
@@ -341,25 +335,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%BA%95%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>三井銀行</t>
+    <t>三井银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%BA%95%E4%BD%8F%E5%8F%8B%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>三井住友銀行</t>
+    <t>三井住友银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%B5%B7%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>東海銀行</t>
+    <t>东海银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E4%B8%9C%E4%BA%AC%E6%97%A5%E8%81%94%E9%93%B6%E8%A1%8C</t>
@@ -377,19 +371,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E4%BF%9D</t>
   </si>
   <si>
-    <t>環保</t>
+    <t>环保</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>石油危機</t>
+    <t>石油危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0%E6%99%AE%E9%8A%B3%E6%96%AF</t>
   </si>
   <si>
-    <t>豐田普銳斯</t>
+    <t>丰田普锐斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8A%A8%E5%8A%9B</t>
@@ -413,19 +407,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>紐約郵報</t>
+    <t>纽约邮报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A0%93%E5%8D%80</t>
   </si>
   <si>
-    <t>曼哈頓區</t>
+    <t>曼哈顿区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8D%E5%8F%A4%E5%B1%8B%E7%AB%99</t>
@@ -437,25 +431,22 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC</t>
   </si>
   <si>
-    <t>東京</t>
+    <t>东京</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8F%E6%97%A5%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>每日新聞</t>
+    <t>每日新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -479,37 +470,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%99%BC%E5%B7%A5%E6%A5%AD%E6%A0%AA%E5%BC%8F%E6%9C%83%E7%A4%BE</t>
   </si>
   <si>
-    <t>大發工業株式會社</t>
+    <t>大发工业株式会社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>豐田集團</t>
+    <t>丰田集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E8%AD%89%E4%BA%A4%E6%89%80</t>
   </si>
   <si>
-    <t>東京證交所</t>
+    <t>东京证交所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2017%E5%B9%B4%E9%98%BF%E6%96%AF%E5%A1%94%E7%B4%8D%E4%B8%96%E7%95%8C%E5%8D%9A%E8%A6%BD%E6%9C%83%E6%97%A5%E6%9C%AC%E9%A4%A8</t>
   </si>
   <si>
-    <t>2017年阿斯塔納世界博覽會日本館</t>
+    <t>2017年阿斯塔纳世界博览会日本馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%8B%E6%9D%BF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>看板系統</t>
+    <t>看板系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0%E7%94%9F%E7%94%A2%E6%96%B9%E5%BC%8F</t>
   </si>
   <si>
-    <t>豐田生產方式</t>
+    <t>丰田生产方式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Corona</t>
@@ -545,7 +536,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E8%91%89</t>
   </si>
   <si>
-    <t>山葉</t>
+    <t>山叶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%95%E6%93%8E</t>
@@ -569,31 +560,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E9%96%80</t>
   </si>
   <si>
-    <t>汽門</t>
+    <t>汽门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E8%AE%8A%E6%B1%BD%E9%96%80%E6%AD%A3%E6%99%82</t>
   </si>
   <si>
-    <t>可變汽門正時</t>
+    <t>可变汽门正时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>通用汽車</t>
+    <t>通用汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2</t>
   </si>
   <si>
-    <t>日產</t>
+    <t>日产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E7%B4%9A%E6%96%B9%E7%A8%8B%E5%BC%8F%E8%B3%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>一級方程式賽車</t>
+    <t>一级方程式赛车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%B5%B7%E9%81%93</t>
@@ -611,19 +602,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%99%BC%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>大發汽車</t>
+    <t>大发汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0Supra</t>
   </si>
   <si>
-    <t>豐田Supra</t>
+    <t>丰田Supra</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A2%E4%BE%88%E5%93%81</t>
@@ -635,7 +626,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%B0%E6%B2%BB%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -659,7 +650,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94</t>
   </si>
   <si>
-    <t>馬自達</t>
+    <t>马自达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E6%B1%BD%E8%BD%A6%E5%B7%A5%E4%B8%9A%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
@@ -719,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%B7%9E%E6%B1%BD%E8%BB%8A%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>廣州汽車集團</t>
+    <t>广州汽车集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2</t>
@@ -731,33 +722,30 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%8B%89%E5%8A%9B%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>世界拉力錦標賽</t>
+    <t>世界拉力锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD</t>
   </si>
   <si>
-    <t>芬蘭</t>
+    <t>芬兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BE%85%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>加泰羅尼亞</t>
+    <t>加泰罗尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
   </si>
   <si>
@@ -773,9 +761,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
@@ -791,7 +776,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%99%82%E6%8D%B7</t>
   </si>
   <si>
-    <t>保時捷</t>
+    <t>保时捷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E6%89%8E</t>
@@ -803,25 +788,22 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E7%BA%A7%E6%96%B9%E7%A8%8B%E5%BC%8F%E8%B5%9B%E8%BD%A6</t>
   </si>
   <si>
-    <t>一级方程式赛车</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0F1</t>
   </si>
   <si>
-    <t>豐田F1</t>
+    <t>丰田F1</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%9C%B0%E8%B3%BD%E8%BB%8A%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>印地賽車聯盟</t>
+    <t>印地赛车联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%88%BF%E8%BB%8A%E8%B3%BD</t>
   </si>
   <si>
-    <t>北美房車賽</t>
+    <t>北美房车赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%A5%BD%E5%B8%82</t>
@@ -857,19 +839,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E9%87%8D%E7%B8%A3</t>
   </si>
   <si>
-    <t>三重縣</t>
+    <t>三重县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A1%E8%BE%A8%E5%B8%82</t>
   </si>
   <si>
-    <t>員辨市</t>
+    <t>员辨市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9C%E5%B2%A1%E7%B8%A3</t>
   </si>
   <si>
-    <t>靜岡縣</t>
+    <t>静冈县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%BE%E9%87%8E%E5%B8%82</t>
@@ -881,13 +863,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B2%A9%E6%89%8B%E7%B8%A3</t>
   </si>
   <si>
-    <t>岩手縣</t>
+    <t>岩手县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%86%BD%E6%BE%A4%E9%83%A1</t>
   </si>
   <si>
-    <t>膽澤郡</t>
+    <t>胆泽郡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%B4%8E%E7%94%BA</t>
@@ -899,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%B8%A3</t>
   </si>
   <si>
-    <t>神奈川縣</t>
+    <t>神奈川县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E6%A8%A1%E5%8E%9F%E5%B8%82</t>
@@ -911,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E9%87%8E%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>日野汽車</t>
+    <t>日野汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%BD%E6%9D%91%E5%B8%82</t>
@@ -923,7 +905,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E5%B7%9D%E7%B8%A3</t>
   </si>
   <si>
-    <t>石川縣</t>
+    <t>石川县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E6%9D%BE%E5%B8%82</t>
@@ -935,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%98%AA%E5%BA%9C</t>
   </si>
   <si>
-    <t>大阪府</t>
+    <t>大坂府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A0%E7%94%B0%E5%B8%82</t>
@@ -953,7 +935,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%99%E8%A8%93%E9%83%A1</t>
   </si>
   <si>
-    <t>乙訓郡</t>
+    <t>乙训郡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%B1%B1%E5%B4%8E%E7%94%BA</t>
@@ -965,7 +947,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%88%86%E7%B8%A3</t>
   </si>
   <si>
-    <t>大分縣</t>
+    <t>大分县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%B4%A5%E5%B8%82</t>
@@ -977,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B2%90%E9%98%9C%E7%B8%A3</t>
   </si>
   <si>
-    <t>岐阜縣</t>
+    <t>岐阜县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%8A%A1%E5%8E%9F%E5%B8%82</t>
@@ -989,9 +971,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
   </si>
   <si>
@@ -1001,13 +980,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>德克薩斯州</t>
+    <t>德克萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>印第安納州</t>
+    <t>印第安纳州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NUMMI</t>
@@ -1025,7 +1004,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%B7%9D%E4%B8%80%E6%B1%BD%E4%B8%B0%E7%94%B0%E6%B1%BD%E8%BD%A6%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
@@ -1079,25 +1058,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%B7%9E%E5%B8%82</t>
   </si>
   <si>
-    <t>廣州市</t>
+    <t>广州市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E6%B3%B0%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>和泰汽車</t>
+    <t>和泰汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%91%9E%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>國瑞汽車</t>
+    <t>国瑞汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
@@ -1109,7 +1088,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%B0%BC</t>
@@ -1127,19 +1106,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0%E6%B1%BD%E8%BB%8A%E8%BB%8A%E6%AC%BE%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>豐田汽車車款列表</t>
+    <t>丰田汽车车款列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0Camry</t>
   </si>
   <si>
-    <t>豐田Camry</t>
+    <t>丰田Camry</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0Comfort</t>
   </si>
   <si>
-    <t>豐田Comfort</t>
+    <t>丰田Comfort</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B0%E7%94%B0%E5%8D%A1%E7%BD%97%E6%8B%89</t>
@@ -1151,19 +1130,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0%E7%9A%87%E5%86%A0</t>
   </si>
   <si>
-    <t>豐田皇冠</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0%E7%9A%87%E5%86%A0Comfort</t>
   </si>
   <si>
-    <t>豐田皇冠Comfort</t>
+    <t>丰田皇冠Comfort</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0%E7%9A%87%E5%86%A0%E9%A6%AC%E5%82%91%E6%96%AF%E5%A1%94</t>
   </si>
   <si>
-    <t>豐田皇冠馬傑斯塔</t>
+    <t>丰田皇冠马杰斯塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Lexus</t>
@@ -1175,19 +1151,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0Prius</t>
   </si>
   <si>
-    <t>豐田Prius</t>
+    <t>丰田Prius</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0bB</t>
   </si>
   <si>
-    <t>豐田bB</t>
+    <t>丰田bB</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%99%BCCoo</t>
   </si>
   <si>
-    <t>大發Coo</t>
+    <t>大发Coo</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Aston_Martin</t>
@@ -1205,73 +1181,73 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0Ractis</t>
   </si>
   <si>
-    <t>豐田Ractis</t>
+    <t>丰田Ractis</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B086</t>
   </si>
   <si>
-    <t>豐田86</t>
+    <t>丰田86</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9F%E9%9C%B8%E9%99%B8BRZ</t>
   </si>
   <si>
-    <t>速霸陸BRZ</t>
+    <t>速霸陆BRZ</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0Vellfire</t>
   </si>
   <si>
-    <t>豐田Vellfire</t>
+    <t>丰田Vellfire</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0Wish</t>
   </si>
   <si>
-    <t>豐田Wish</t>
+    <t>丰田Wish</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0Sienta</t>
   </si>
   <si>
-    <t>豐田Sienta</t>
+    <t>丰田Sienta</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0%E9%99%B8%E5%9C%B0%E5%B7%A1%E6%B4%8B%E8%89%A6</t>
   </si>
   <si>
-    <t>豐田陸地巡洋艦</t>
+    <t>丰田陆地巡洋舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0Dyna</t>
   </si>
   <si>
-    <t>豐田Dyna</t>
+    <t>丰田Dyna</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0Hiace</t>
   </si>
   <si>
-    <t>豐田Hiace</t>
+    <t>丰田Hiace</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%A9%9F%E5%8B%95%E8%BB%8A</t>
   </si>
   <si>
-    <t>高機動車</t>
+    <t>高机动车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0Yaris</t>
   </si>
   <si>
-    <t>豐田Yaris</t>
+    <t>丰田Yaris</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0Verso</t>
   </si>
   <si>
-    <t>豐田Verso</t>
+    <t>丰田Verso</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%85%B0%E8%BE%BE</t>
@@ -1283,13 +1259,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0Coaster</t>
   </si>
   <si>
-    <t>豐田Coaster</t>
+    <t>丰田Coaster</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0Crown_Comfort</t>
   </si>
   <si>
-    <t>豐田Crown Comfort</t>
+    <t>丰田Crown Comfort</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B0%E7%94%B0Innova</t>
@@ -1301,7 +1277,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0Corolla</t>
   </si>
   <si>
-    <t>豐田Corolla</t>
+    <t>丰田Corolla</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B0%E7%94%B0%E6%B1%BD%E8%BD%A6%E7%AE%A1%E7%90%86%E5%8E%9F%E5%88%99</t>
@@ -1319,7 +1295,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%BA%95%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>三井集團</t>
+    <t>三井集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IHI</t>
@@ -1349,7 +1325,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E8%A3%BD%E7%B4%99</t>
   </si>
   <si>
-    <t>日本製紙</t>
+    <t>日本制纸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%A3%AB%E8%83%B6%E7%89%87%E8%82%A1%E4%BB%BD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
@@ -1367,49 +1343,49 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%90%88%E6%88%90</t>
   </si>
   <si>
-    <t>東亞合成</t>
+    <t>东亚合成</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E8%A3%BD%E9%8B%BC%E6%89%80</t>
   </si>
   <si>
-    <t>日本製鋼所</t>
+    <t>日本制钢所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E8%8A%9D</t>
   </si>
   <si>
-    <t>東芝</t>
+    <t>东芝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%BA%95%E7%89%A9%E7%94%A3</t>
   </si>
   <si>
-    <t>三井物産</t>
+    <t>三井物产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%B6%8A%E4%BC%8A%E5%8B%A2%E4%B8%B9%E6%8E%A7%E8%82%A1</t>
   </si>
   <si>
-    <t>三越伊勢丹控股</t>
+    <t>三越伊势丹控股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%B6%8A%E4%BC%8A%E5%8B%A2%E4%B8%B9</t>
   </si>
   <si>
-    <t>三越伊勢丹</t>
+    <t>三越伊势丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%BA%95%E4%BD%8F%E5%8F%8B%E9%87%91%E8%9E%8D%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>三井住友金融集團</t>
+    <t>三井住友金融集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%BA%95%E4%BD%8F%E5%8F%8B%E4%BF%A1%E8%A8%97%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>三井住友信託銀行</t>
+    <t>三井住友信讬银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%BA%95%E4%B8%8D%E5%8A%A8%E4%BA%A7</t>
@@ -1427,7 +1403,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E6%94%BE%E9%80%81%E6%8E%A7%E8%82%A1</t>
   </si>
   <si>
-    <t>東京放送控股</t>
+    <t>东京放送控股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/TBS</t>
@@ -1439,7 +1415,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%BA%95%E8%B2%A1%E9%96%A5</t>
   </si>
   <si>
-    <t>三井財閥</t>
+    <t>三井财阀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%BA%95%E5%AE%B6</t>
@@ -1457,7 +1433,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8F%E5%8F%8B%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>住友集團</t>
+    <t>住友集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%BD%A6</t>
@@ -1469,7 +1445,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%BD%E9%80%A0%E5%95%86</t>
   </si>
   <si>
-    <t>製造商</t>
+    <t>制造商</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -1505,7 +1481,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E4%B8%B9%E5%B0%BC%E5%A3%AB</t>
   </si>
   <si>
-    <t>亞歷山大丹尼士</t>
+    <t>亚历山大丹尼士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%96%AF%E6%95%A6</t>
@@ -1523,7 +1499,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E7%89%B9%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>萊特巴士</t>
+    <t>莱特巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E8%AF%BA</t>
@@ -1541,25 +1517,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E8%83%A1%E7%88%BE%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>范胡爾公司</t>
+    <t>范胡尔公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/VDL%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>VDL集團</t>
+    <t>VDL集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%85%8B%E9%9C%8D%E5%A4%AB</t>
@@ -1583,7 +1559,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%BC%97%E9%9B%86%E5%9B%A2</t>
@@ -1601,7 +1577,7 @@
     <t>https://zh.wikipedia.org/wiki/MAN%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>MAN集團</t>
+    <t>MAN集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%A5%A5%E6%99%AE%E5%85%B0</t>
@@ -1619,7 +1595,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%B3%BD%E5%BE%B7%E6%96%AF-%E8%B3%93%E5%A3%AB</t>
   </si>
   <si>
-    <t>梅賽德斯-賓士</t>
+    <t>梅赛德斯-宾士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E6%89%B6%E6%A1%91%E5%8D%A1%E5%AE%A2%E8%BD%A6</t>
@@ -1637,13 +1613,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E9%9C%B8_(%E6%B1%BD%E8%BB%8A%E5%85%AC%E5%8F%B8)</t>
   </si>
   <si>
-    <t>歐霸 (汽車公司)</t>
+    <t>欧霸 (汽车公司)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%90%A8%E5%AE%A2%E8%BD%A6</t>
@@ -1661,7 +1637,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E6%8B%89%E7%91%9E%E6%96%AF%E5%AE%A2%E8%BD%A6</t>
@@ -1679,13 +1655,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%87%B1%E6%B4%9B%E6%96%AF%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>伊凱洛斯巴士</t>
+    <t>伊凯洛斯巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞爾維亞</t>
+    <t>塞尔维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -1703,25 +1679,25 @@
     <t>https://zh.wikipedia.org/wiki/UD%E5%8D%A1%E8%BB%8A</t>
   </si>
   <si>
-    <t>UD卡車</t>
+    <t>UD卡车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%B0%94%E5%9F%BA%E6%B1%BD%E8%BD%A6%E5%8E%82</t>
@@ -1739,7 +1715,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%A1%94%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>塔塔汽車</t>
+    <t>塔塔汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B3%E6%B2%83%E5%AE%A2%E8%BD%A6</t>
@@ -1751,7 +1727,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E9%80%9A%E5%AE%A2%E8%BB%8A</t>
   </si>
   <si>
-    <t>宇通客車</t>
+    <t>宇通客车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%BE%99</t>
@@ -1817,13 +1793,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%9A%E5%AE%A2%E8%BB%8A</t>
   </si>
   <si>
-    <t>中通客車</t>
+    <t>中通客车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E5%B9%B4%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>青年汽車</t>
+    <t>青年汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E6%B7%AE%E6%B1%BD%E8%BD%A6</t>
@@ -1871,7 +1847,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%B4%B2%E9%BE%8D</t>
   </si>
   <si>
-    <t>五洲龍</t>
+    <t>五洲龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E4%BA%9A%E8%BF%AA</t>
@@ -1925,7 +1901,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>現代汽車</t>
+    <t>现代汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8C%E9%BE%99%E6%B1%BD%E8%BD%A6</t>
@@ -1937,19 +1913,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%8D%81%E9%88%B4</t>
   </si>
   <si>
-    <t>五十鈴</t>
+    <t>五十铃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E5%BE%B7%E5%8B%95%E8%83%BD%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>華德動能科技</t>
+    <t>华德动能科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -1979,7 +1955,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%85%99%E8%8D%89%E7%94%A2%E6%A5%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>日本煙草產業公司</t>
+    <t>日本烟草产业公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/7%26I%E6%8E%A7%E8%82%A1</t>
@@ -1991,31 +1967,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E8%B6%8A%E5%8C%96%E5%AD%B8%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>信越化學工業</t>
+    <t>信越化学工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E7%94%B0%E8%97%A5%E5%93%81</t>
   </si>
   <si>
-    <t>武田藥品</t>
+    <t>武田药品</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E3%82%A2%E3%82%B9%E3%83%86%E3%83%A9%E3%82%B9%E8%A3%BD%E8%96%AC</t>
   </si>
   <si>
-    <t>ja-アステラス製薬</t>
+    <t>ja-アステラス制薬</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%AB%8B%E8%A3%BD%E4%BD%9C%E6%89%80</t>
   </si>
   <si>
-    <t>日立製作所</t>
+    <t>日立制作所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E4%B8%8B%E9%9B%BB%E5%99%A8</t>
   </si>
   <si>
-    <t>松下電器</t>
+    <t>松下电器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E5%B0%BC</t>
@@ -2033,7 +2009,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A3%9D</t>
   </si>
   <si>
-    <t>電裝</t>
+    <t>电装</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E9%82%A3%E7%A7%91</t>
@@ -2045,15 +2021,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%91%E7%94%B0%E8%A3%BD%E4%BD%9C%E6%89%80</t>
   </si>
   <si>
-    <t>村田製作所</t>
+    <t>村田制作所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>日產汽車</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%94%B0%E6%8A%80%E7%A0%94%E5%B7%A5%E4%B8%9A</t>
   </si>
   <si>
@@ -2075,9 +2048,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%BA%95%E7%89%A9%E7%94%A2</t>
   </si>
   <si>
-    <t>三井物產</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E5%95%86%E4%BA%8B</t>
   </si>
   <si>
@@ -2087,19 +2057,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E6%97%A5%E8%81%AF%E9%87%91%E8%9E%8D%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>三菱日聯金融集團</t>
+    <t>三菱日联金融集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E7%A9%97%E9%87%91%E8%9E%8D%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>瑞穗金融集團</t>
+    <t>瑞穗金融集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E6%B5%B7%E4%B8%8A%E6%8E%A7%E8%82%A1</t>
   </si>
   <si>
-    <t>東京海上控股</t>
+    <t>东京海上控股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E5%9C%B0%E6%89%80</t>
@@ -2111,19 +2081,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%97%A5%E6%9C%AC%E6%97%85%E5%AE%A2%E9%90%B5%E9%81%93</t>
   </si>
   <si>
-    <t>東日本旅客鐵道</t>
+    <t>东日本旅客铁道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%B5%B7%E6%97%85%E5%AE%A2%E9%90%B5%E9%81%93</t>
   </si>
   <si>
-    <t>東海旅客鐵道</t>
+    <t>东海旅客铁道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%9B%BB%E4%BF%A1%E9%9B%BB%E8%A9%B1</t>
   </si>
   <si>
-    <t>日本電信電話</t>
+    <t>日本电信电话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/KDDI</t>
@@ -2141,31 +2111,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%8A%80%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>軟銀集團</t>
+    <t>软银集团</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%9B%BD%E9%9A%9B%E7%9F%B3%E6%B2%B9%E9%96%8B%E7%99%BA%E5%B8%9D%E7%9F%B3</t>
   </si>
   <si>
-    <t>ja-国際石油開発帝石</t>
+    <t>ja-国际石油开発帝石</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%A4%A7%E6%9D%B1%E5%BB%BA%E8%A8%97</t>
   </si>
   <si>
-    <t>ja-大東建託</t>
+    <t>ja-大东建讬</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%A4%A7%E5%92%8C%E3%83%8F%E3%82%A6%E3%82%B9%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>ja-大和ハウス工業</t>
+    <t>ja-大和ハウス工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%8D%E6%B0%B4%E6%88%BF%E5%B1%8B</t>
   </si>
   <si>
-    <t>積水房屋</t>
+    <t>积水房屋</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E3%82%A2%E3%82%B5%E3%83%92%E3%82%B0%E3%83%AB%E3%83%BC%E3%83%97%E3%83%9B%E3%83%BC%E3%83%AB%E3%83%87%E3%82%A3%E3%83%B3%E3%82%B0%E3%82%B9</t>
@@ -2189,7 +2159,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E9%BA%97%E6%A0%AA%E5%BC%8F%E6%9C%83%E7%A4%BE</t>
   </si>
   <si>
-    <t>東麗株式會社</t>
+    <t>东丽株式会社</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%97%AD%E5%8C%96%E6%88%90</t>
@@ -2201,7 +2171,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E5%8C%96%E5%AD%B8%E6%8E%A7%E8%82%A1</t>
   </si>
   <si>
-    <t>三菱化學控股</t>
+    <t>三菱化学控股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E7%8E%8B</t>
@@ -2213,7 +2183,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%A9%E9%87%8E%E7%BE%A9%E8%A3%BD%E8%97%A5</t>
   </si>
   <si>
-    <t>塩野義製藥</t>
+    <t>塩野义制药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%AB%E6%9D%90</t>
@@ -2225,7 +2195,7 @@
     <t>https://ja.wikipedia.org/wiki/%E5%B0%8F%E9%87%8E%E8%96%AC%E5%93%81%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>ja-小野薬品工業</t>
+    <t>ja-小野薬品工业</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E4%B8%89%E5%85%B1</t>
@@ -2237,7 +2207,7 @@
     <t>https://ja.wikipedia.org/wiki/%E5%A4%A7%E5%A1%9A%E3%83%9B%E3%83%BC%E3%83%AB%E3%83%87%E3%82%A3%E3%83%B3%E3%82%B0%E3%82%B9</t>
   </si>
   <si>
-    <t>ja-大塚ホールディングス</t>
+    <t>ja-大冢ホールディングス</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Oriental_Land</t>
@@ -2249,19 +2219,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%82%E5%A4%A9_(Rakuten)</t>
   </si>
   <si>
-    <t>樂天 (Rakuten)</t>
+    <t>乐天 (Rakuten)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%A3%AB%E8%BB%9F%E7%89%87%E6%8E%A7%E8%82%A1</t>
   </si>
   <si>
-    <t>富士軟片控股</t>
+    <t>富士软片控股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%9F%E5%A0%82</t>
   </si>
   <si>
-    <t>資生堂</t>
+    <t>资生堂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/JXTG%E6%8E%A7%E8%82%A1</t>
@@ -2279,7 +2249,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%97%A5%E9%90%B5%E4%BD%8F%E9%87%91</t>
   </si>
   <si>
-    <t>新日鐵住金</t>
+    <t>新日铁住金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/JFE%E6%8E%A7%E8%82%A1</t>
@@ -2297,7 +2267,7 @@
     <t>https://ja.wikipedia.org/wiki/%E4%BD%8F%E5%8F%8B%E9%9B%BB%E6%B0%97%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>ja-住友電気工業</t>
+    <t>ja-住友电気工业</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E3%83%AA%E3%82%AF%E3%83%AB%E3%83%BC%E3%83%88</t>
@@ -2315,19 +2285,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E6%9D%BE%E8%A3%BD%E4%BD%9C%E6%89%80</t>
   </si>
   <si>
-    <t>小松製作所</t>
+    <t>小松制作所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%85%E4%BF%9D%E7%94%B0_(%E4%BC%81%E6%A5%AD)</t>
   </si>
   <si>
-    <t>久保田 (企業)</t>
+    <t>久保田 (企业)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%87%91%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>大金工業</t>
+    <t>大金工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E7%94%B5%E6%9C%BA</t>
@@ -2339,7 +2309,7 @@
     <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%9B%BB%E7%94%A3</t>
   </si>
   <si>
-    <t>ja-日本電産</t>
+    <t>ja-日本电产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%A3%AB%E9%80%9A</t>
@@ -2357,7 +2327,7 @@
     <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E6%9D%B1%E9%9B%BB%E5%B7%A5</t>
   </si>
   <si>
-    <t>ja-日東電工</t>
+    <t>ja-日东电工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E9%87%8D%E5%B7%A5%E4%B8%9A</t>
@@ -2369,19 +2339,16 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%87%AA%E8%BE%BE</t>
   </si>
   <si>
-    <t>马自达</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%88%B4%E6%9C%A8_(%E5%85%AC%E5%8F%B8)</t>
   </si>
   <si>
-    <t>鈴木 (公司)</t>
+    <t>铃木 (公司)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9F%E9%9C%B8%E9%99%B8</t>
   </si>
   <si>
-    <t>速霸陸</t>
+    <t>速霸陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E9%9B%85_(%E6%97%A5%E6%9C%AC)</t>
@@ -2399,13 +2366,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B8%E7%B4%85</t>
   </si>
   <si>
-    <t>丸紅</t>
+    <t>丸红</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E5%A8%81%E5%8A%9B%E7%A7%91%E5%89%B5</t>
   </si>
   <si>
-    <t>東京威力科創</t>
+    <t>东京威力科创</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8F%E5%8F%8B%E5%95%86%E4%BA%8B</t>
@@ -2417,7 +2384,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AC%8C%E8%81%AF</t>
   </si>
   <si>
-    <t>嬌聯</t>
+    <t>娇联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E6%97%BA</t>
@@ -2441,7 +2408,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%8A%9B%E5%A3%AB</t>
   </si>
   <si>
-    <t>歐力士</t>
+    <t>欧力士</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%A4%A7%E5%92%8C%E8%A8%BC%E5%88%B8%E3%82%B0%E3%83%AB%E3%83%BC%E3%83%97%E6%9C%AC%E7%A4%BE</t>
@@ -2459,7 +2426,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%90%8D%E4%BF%9D%E6%97%A5%E6%9C%AC%E8%88%88%E4%BA%9E%E6%8E%A7%E8%82%A1</t>
   </si>
   <si>
-    <t>損保日本興亞控股</t>
+    <t>损保日本兴亚控股</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/MS%26AD%E3%82%A4%E3%83%B3%E3%82%B7%E3%83%A5%E3%82%A2%E3%83%A9%E3%83%B3%E3%82%B9%E3%82%B0%E3%83%AB%E3%83%BC%E3%83%97%E3%83%9B%E3%83%BC%E3%83%AB%E3%83%87%E3%82%A3%E3%83%B3%E3%82%B0%E3%82%B9</t>
@@ -2489,7 +2456,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%97%A5%E6%9C%AC%E6%97%85%E5%AE%A2%E9%90%B5%E9%81%93</t>
   </si>
   <si>
-    <t>西日本旅客鐵道</t>
+    <t>西日本旅客铁道</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E3%83%A4%E3%83%9E%E3%83%88%E3%83%9B%E3%83%BC%E3%83%AB%E3%83%87%E3%82%A3%E3%83%B3%E3%82%B0%E3%82%B9</t>
@@ -2513,25 +2480,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E9%9B%BB%E5%8A%9B</t>
   </si>
   <si>
-    <t>中部電力</t>
+    <t>中部电力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E8%A5%BF%E9%9B%BB%E5%8A%9B</t>
   </si>
   <si>
-    <t>關西電力</t>
+    <t>关西电力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E7%87%83%E6%B0%A3</t>
   </si>
   <si>
-    <t>東京燃氣</t>
+    <t>东京燃气</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%A4%A7%E9%98%AA%E3%82%AC%E3%82%B9</t>
   </si>
   <si>
-    <t>ja-大阪ガス</t>
+    <t>ja-大坂ガス</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SECOM</t>
@@ -2549,13 +2516,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%85%E9%8A%B7</t>
   </si>
   <si>
-    <t>迅銷</t>
+    <t>迅销</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%B6%93%E5%B9%B3%E5%9D%87%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>日經平均指數</t>
+    <t>日经平均指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%81%AB%E8%85%BF</t>
@@ -2573,13 +2540,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BE%9C%E7%94%B2%E8%90%AC</t>
   </si>
   <si>
-    <t>龜甲萬</t>
+    <t>龟甲万</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8F%E5%8F%8B%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>住友化學</t>
+    <t>住友化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E9%83%A8%E5%85%B4%E4%BA%A7</t>
@@ -2591,19 +2558,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E7%94%B0%E8%97%A5%E5%93%81%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>武田藥品工業</t>
+    <t>武田药品工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%97%A5%E6%9C%AC%E4%BD%8F%E5%8F%8B%E8%A3%BD%E8%97%A5</t>
   </si>
   <si>
-    <t>大日本住友製藥</t>
+    <t>大日本住友制药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BD%E9%87%8E%E7%BE%A9%E8%A3%BD%E8%97%A5</t>
   </si>
   <si>
-    <t>鹽野義製藥</t>
+    <t>盐野义制药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/JX%E6%8E%A7%E8%82%A1</t>
@@ -2615,7 +2582,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%AB%E6%BF%B1%E6%A9%A1%E8%86%A0</t>
   </si>
   <si>
-    <t>橫濱橡膠</t>
+    <t>横滨橡胶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%AD%E7%A1%9D%E5%AD%90</t>
@@ -2633,13 +2600,13 @@
     <t>https://zh.wikipedia.org/wiki/TOTO_(%E4%BC%81%E6%A5%AD)</t>
   </si>
   <si>
-    <t>TOTO (企業)</t>
+    <t>TOTO (企业)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%88%B6%E8%A3%BD%E9%8B%BC%E6%89%80</t>
   </si>
   <si>
-    <t>神戶製鋼所</t>
+    <t>神户制钢所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%B2%BE%E5%B7%A5</t>
@@ -2675,31 +2642,28 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%A5%BF%E6%AD%90</t>
   </si>
   <si>
-    <t>卡西歐</t>
+    <t>卡西欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E8%8A%9D</t>
   </si>
   <si>
-    <t>东芝</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%B7%9D%E9%9B%BB%E6%A9%9F</t>
   </si>
   <si>
-    <t>安川電機</t>
+    <t>安川电机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%9B%BB%E6%B0%A3</t>
   </si>
   <si>
-    <t>日本電氣</t>
+    <t>日本电气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%96%E9%9B%BB%E6%B0%A3%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>沖電氣工業</t>
+    <t>冲电气工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%99%AE</t>
@@ -2717,13 +2681,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%BE%8E%E9%9B%BB%E6%A9%9F</t>
   </si>
   <si>
-    <t>三美電機</t>
+    <t>三美电机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E9%8B%92%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>先鋒公司</t>
+    <t>先锋公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%98%B3%E8%AF%B1%E7%94%B5</t>
@@ -2735,19 +2699,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9D%E5%B4%8E%E9%87%8D%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>川崎重工業</t>
+    <t>川崎重工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%88%B4%E6%9C%A8%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>鈴木公司</t>
+    <t>铃木公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%A3%AB%E9%87%8D%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>富士重工業</t>
+    <t>富士重工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E6%B1%BD%E8%BD%A6</t>
@@ -2765,13 +2729,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%B7%B4%E6%96%AF</t>
   </si>
   <si>
-    <t>奧林巴斯</t>
+    <t>奥林巴斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E5%B0%BC%E5%8D%A1%E7%BE%8E%E8%83%BD%E9%81%94</t>
   </si>
   <si>
-    <t>柯尼卡美能達</t>
+    <t>柯尼卡美能达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B8%E7%89%88%E5%8D%B0%E5%88%B7_(%E5%85%AC%E5%8F%B8)</t>
@@ -2795,31 +2759,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%88%90%E5%BB%BA%E8%A8%AD</t>
   </si>
   <si>
-    <t>大成建設</t>
+    <t>大成建设</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%9E%97%E7%B5%84</t>
   </si>
   <si>
-    <t>大林組</t>
+    <t>大林组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%B0%B4%E5%BB%BA%E8%A8%AD</t>
   </si>
   <si>
-    <t>清水建設</t>
+    <t>清水建设</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BF%E5%B3%B6%E5%BB%BA%E8%A8%AD</t>
   </si>
   <si>
-    <t>鹿島建設</t>
+    <t>鹿岛建设</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%B3%B6%E5%B1%8B</t>
   </si>
   <si>
-    <t>高島屋</t>
+    <t>高岛屋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B8%E4%BA%95</t>
@@ -2831,7 +2795,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E6%97%BA%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>永旺集團</t>
+    <t>永旺集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UNY</t>
@@ -2843,37 +2807,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E8%91%89%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>千葉銀行</t>
+    <t>千叶银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%AB%E6%BF%B1%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>橫濱銀行</t>
+    <t>横滨银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9C%E5%B2%A1%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>靜岡銀行</t>
+    <t>静冈银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B2%A1%E9%87%91%E8%9E%8D%E9%9B%86%E5%9C%98%E8%82%A1%E4%BB%BD</t>
   </si>
   <si>
-    <t>福岡金融集團股份</t>
+    <t>福冈金融集团股份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%94%9F%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>新生銀行</t>
+    <t>新生银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E4%BA%95%E8%AD%89%E5%88%B8</t>
   </si>
   <si>
-    <t>松井證券</t>
+    <t>松井证券</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E5%B0%BC%E9%87%91%E8%9E%8D%E6%8E%A7%E8%82%A1</t>
@@ -2885,37 +2849,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E7%94%9F%E5%91%BD%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>第一生命保險</t>
+    <t>第一生命保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%AD%A6%E9%90%B5%E9%81%93</t>
   </si>
   <si>
-    <t>東武鐵道</t>
+    <t>东武铁道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E6%80%A5%E8%A1%8C%E9%9B%BB%E9%90%B5</t>
   </si>
   <si>
-    <t>東京急行電鐵</t>
+    <t>东京急行电铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%94%B0%E6%80%A5%E9%9B%BB%E9%90%B5</t>
   </si>
   <si>
-    <t>小田急電鐵</t>
+    <t>小田急电铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E7%8E%8B%E9%9B%BB%E9%90%B5</t>
   </si>
   <si>
-    <t>京王電鐵</t>
+    <t>京王电铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E6%88%90%E9%9B%BB%E9%90%B5</t>
   </si>
   <si>
-    <t>京成電鐵</t>
+    <t>京成电铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%80%9A%E8%BF%90</t>
@@ -2927,43 +2891,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%83%B5%E8%88%B9</t>
   </si>
   <si>
-    <t>日本郵船</t>
+    <t>日本邮船</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%97%A5%E6%9C%AC%E7%A9%BA%E8%BC%B8</t>
   </si>
   <si>
-    <t>全日本空輸</t>
+    <t>全日本空输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%8A%80</t>
   </si>
   <si>
-    <t>軟銀</t>
+    <t>软银</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E9%9B%BB%E5%8A%9B</t>
   </si>
   <si>
-    <t>東京電力</t>
+    <t>东京电力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%AF%B6</t>
   </si>
   <si>
-    <t>東寶</t>
+    <t>东宝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E5%B7%A8%E8%9B%8B</t>
   </si>
   <si>
-    <t>東京巨蛋</t>
+    <t>东京巨蛋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%A8%82%E7%BE%8E</t>
   </si>
   <si>
-    <t>科樂美</t>
+    <t>科乐美</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E9%80%9A</t>
@@ -2981,7 +2945,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%A8%E5%8B%A2%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>趨勢科技</t>
+    <t>趋势科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/DeNA</t>
@@ -2993,7 +2957,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3005,7 +2969,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3017,7 +2981,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -3029,7 +2993,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B0%E7%94%B0%E6%B1%BD%E8%BD%A6</t>
@@ -4598,7 +4562,7 @@
         <v>83</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="G42" t="n">
         <v>20</v>
@@ -4624,10 +4588,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="G43" t="n">
         <v>15</v>
@@ -4653,10 +4617,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>5</v>
@@ -4682,10 +4646,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -4711,10 +4675,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -4740,10 +4704,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>14</v>
@@ -4769,10 +4733,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>7</v>
@@ -4798,10 +4762,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>6</v>
@@ -4827,10 +4791,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>10</v>
@@ -4856,10 +4820,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>7</v>
@@ -4885,10 +4849,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -4914,10 +4878,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -4943,10 +4907,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>16</v>
@@ -4972,10 +4936,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -5001,10 +4965,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -5030,10 +4994,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -5059,10 +5023,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -5088,10 +5052,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -5117,10 +5081,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -5146,10 +5110,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -5175,10 +5139,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -5204,10 +5168,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -5233,10 +5197,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -5262,10 +5226,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -5291,10 +5255,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -5320,10 +5284,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -5349,10 +5313,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -5378,10 +5342,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -5407,10 +5371,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>20</v>
@@ -5436,10 +5400,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -5465,10 +5429,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="G72" t="n">
         <v>19</v>
@@ -5494,10 +5458,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -5523,10 +5487,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -5552,10 +5516,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -5581,10 +5545,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -5610,10 +5574,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -5639,10 +5603,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G78" t="n">
         <v>4</v>
@@ -5668,10 +5632,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5697,10 +5661,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -5726,10 +5690,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5755,10 +5719,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -5784,10 +5748,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G83" t="n">
         <v>9</v>
@@ -5813,10 +5777,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5842,10 +5806,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -5871,10 +5835,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G86" t="n">
         <v>16</v>
@@ -5900,10 +5864,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5929,10 +5893,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5958,10 +5922,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G89" t="n">
         <v>19</v>
@@ -5987,10 +5951,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G90" t="n">
         <v>4</v>
@@ -6016,10 +5980,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -6045,10 +6009,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G92" t="n">
         <v>5</v>
@@ -6074,10 +6038,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -6103,10 +6067,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G94" t="n">
         <v>5</v>
@@ -6132,10 +6096,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G95" t="n">
         <v>6</v>
@@ -6161,10 +6125,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G96" t="n">
         <v>3</v>
@@ -6190,10 +6154,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -6219,10 +6183,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -6248,10 +6212,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G99" t="n">
         <v>4</v>
@@ -6277,10 +6241,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -6306,10 +6270,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -6335,10 +6299,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -6364,10 +6328,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -6393,10 +6357,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -6422,10 +6386,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6451,10 +6415,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6480,10 +6444,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6509,10 +6473,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -6538,10 +6502,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F109" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6567,10 +6531,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F110" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6596,10 +6560,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F111" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6625,10 +6589,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F112" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6654,10 +6618,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F113" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6712,10 +6676,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6741,10 +6705,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -6770,10 +6734,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6799,10 +6763,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6828,10 +6792,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6857,10 +6821,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G120" t="n">
         <v>5</v>
@@ -6886,10 +6850,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6915,10 +6879,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6944,10 +6908,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6973,10 +6937,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>149</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -7002,10 +6966,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -7031,10 +6995,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -7060,10 +7024,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>98</v>
       </c>
       <c r="G127" t="n">
         <v>8</v>
@@ -7089,10 +7053,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -7118,10 +7082,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -7147,10 +7111,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -7176,10 +7140,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -7205,10 +7169,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>189</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -7234,10 +7198,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7263,10 +7227,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7292,10 +7256,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -7321,10 +7285,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>3</v>
@@ -7350,10 +7314,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7379,10 +7343,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7408,10 +7372,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7437,10 +7401,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7466,10 +7430,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7495,10 +7459,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7524,10 +7488,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7553,10 +7517,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7582,10 +7546,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7611,10 +7575,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7640,10 +7604,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7669,10 +7633,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7698,10 +7662,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7727,10 +7691,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -7756,10 +7720,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7785,10 +7749,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7814,10 +7778,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7843,10 +7807,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7872,10 +7836,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7901,10 +7865,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7930,10 +7894,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7959,10 +7923,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7988,10 +7952,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -8017,10 +7981,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -8046,10 +8010,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -8075,10 +8039,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8104,10 +8068,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>147</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -8133,10 +8097,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8162,10 +8126,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8191,10 +8155,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8220,10 +8184,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F167" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8249,10 +8213,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F168" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8278,10 +8242,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F169" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8307,10 +8271,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F170" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8336,10 +8300,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F171" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -8365,10 +8329,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8394,10 +8358,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8423,10 +8387,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G174" t="n">
         <v>4</v>
@@ -8452,10 +8416,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F175" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G175" t="n">
         <v>14</v>
@@ -8481,10 +8445,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8510,10 +8474,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8539,10 +8503,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8568,10 +8532,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F179" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8597,10 +8561,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8626,10 +8590,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8655,10 +8619,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8684,10 +8648,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F183" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8713,10 +8677,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F184" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8742,10 +8706,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F185" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8771,10 +8735,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F186" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8800,10 +8764,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F187" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -8829,10 +8793,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F188" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8858,10 +8822,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F189" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G189" t="n">
         <v>3</v>
@@ -8887,10 +8851,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F190" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G190" t="n">
         <v>5</v>
@@ -8916,10 +8880,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F191" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -8945,10 +8909,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F192" t="s">
-        <v>378</v>
+        <v>96</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8974,10 +8938,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F193" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G193" t="n">
         <v>3</v>
@@ -9003,10 +8967,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F194" t="s">
-        <v>378</v>
+        <v>96</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9032,10 +8996,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F195" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -9061,10 +9025,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F196" t="s">
-        <v>378</v>
+        <v>96</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9090,10 +9054,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F197" t="s">
-        <v>378</v>
+        <v>96</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -9119,10 +9083,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F198" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G198" t="n">
         <v>16</v>
@@ -9148,10 +9112,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F199" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9177,10 +9141,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F200" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -9206,10 +9170,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F201" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -9235,10 +9199,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F202" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9264,10 +9228,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F203" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9293,10 +9257,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F204" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9322,10 +9286,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F205" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G205" t="n">
         <v>3</v>
@@ -9351,10 +9315,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F206" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -9380,10 +9344,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F207" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9409,10 +9373,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F208" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G208" t="n">
         <v>8</v>
@@ -9438,10 +9402,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F209" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9467,10 +9431,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F210" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -9496,10 +9460,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F211" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G211" t="n">
         <v>3</v>
@@ -9525,10 +9489,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F212" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G212" t="n">
         <v>4</v>
@@ -9554,10 +9518,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F213" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9583,10 +9547,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F214" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9612,10 +9576,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F215" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G215" t="n">
         <v>5</v>
@@ -9641,10 +9605,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F216" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -9670,10 +9634,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F217" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -9699,10 +9663,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F218" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9728,10 +9692,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F219" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9757,10 +9721,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F220" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G220" t="n">
         <v>4</v>
@@ -9786,10 +9750,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F221" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G221" t="n">
         <v>6</v>
@@ -9815,10 +9779,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F222" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -9844,10 +9808,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F223" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G223" t="n">
         <v>15</v>
@@ -9873,10 +9837,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F224" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G224" t="n">
         <v>4</v>
@@ -9902,10 +9866,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F225" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G225" t="n">
         <v>4</v>
@@ -9931,10 +9895,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F226" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G226" t="n">
         <v>5</v>
@@ -9960,10 +9924,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F227" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9989,10 +9953,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F228" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G228" t="n">
         <v>5</v>
@@ -10018,10 +9982,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F229" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G229" t="n">
         <v>3</v>
@@ -10047,10 +10011,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F230" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -10076,10 +10040,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F231" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10105,10 +10069,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F232" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10134,10 +10098,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F233" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -10163,10 +10127,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F234" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10192,10 +10156,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F235" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -10221,10 +10185,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F236" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -10250,10 +10214,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F237" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -10279,10 +10243,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F238" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -10308,10 +10272,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F239" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -10337,10 +10301,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F240" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10366,10 +10330,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F241" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10395,10 +10359,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F242" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10424,10 +10388,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F243" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10453,10 +10417,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F244" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G244" t="n">
         <v>3</v>
@@ -10482,10 +10446,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F245" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10511,10 +10475,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F246" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G246" t="n">
         <v>6</v>
@@ -10540,10 +10504,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F247" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G247" t="n">
         <v>4</v>
@@ -10569,10 +10533,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F248" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G248" t="n">
         <v>5</v>
@@ -10598,10 +10562,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F249" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G249" t="n">
         <v>4</v>
@@ -10627,10 +10591,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F250" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G250" t="n">
         <v>34</v>
@@ -10656,10 +10620,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F251" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10685,10 +10649,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F252" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10714,10 +10678,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F253" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10743,10 +10707,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F254" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -10772,10 +10736,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F255" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G255" t="n">
         <v>3</v>
@@ -10801,10 +10765,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F256" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10830,10 +10794,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F257" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10859,10 +10823,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F258" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -10888,10 +10852,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F259" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10917,10 +10881,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F260" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G260" t="n">
         <v>2</v>
@@ -10946,10 +10910,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F261" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10975,10 +10939,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F262" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -11004,10 +10968,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F263" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11033,10 +10997,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F264" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11062,10 +11026,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F265" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -11091,10 +11055,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F266" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G266" t="n">
         <v>3</v>
@@ -11120,10 +11084,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F267" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="G267" t="n">
         <v>3</v>
@@ -11149,10 +11113,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F268" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11178,10 +11142,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F269" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G269" t="n">
         <v>8</v>
@@ -11207,10 +11171,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F270" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -11236,10 +11200,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F271" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11265,10 +11229,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F272" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11294,10 +11258,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F273" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11323,10 +11287,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F274" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11352,10 +11316,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F275" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11381,10 +11345,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F276" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11410,10 +11374,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F277" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11439,10 +11403,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F278" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G278" t="n">
         <v>3</v>
@@ -11468,10 +11432,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F279" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G279" t="n">
         <v>3</v>
@@ -11497,10 +11461,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F280" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11526,10 +11490,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F281" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11555,10 +11519,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F282" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11584,10 +11548,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F283" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11613,10 +11577,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F284" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11642,10 +11606,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F285" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11671,10 +11635,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F286" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11700,10 +11664,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="F287" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11729,10 +11693,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F288" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11758,10 +11722,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F289" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11787,10 +11751,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F290" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11816,10 +11780,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F291" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11845,10 +11809,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="F292" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11874,10 +11838,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F293" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11903,10 +11867,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F294" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11932,10 +11896,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F295" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11961,10 +11925,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F296" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11990,10 +11954,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F297" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12019,10 +11983,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F298" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12048,10 +12012,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F299" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12077,10 +12041,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F300" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12106,10 +12070,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F301" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G301" t="n">
         <v>2</v>
@@ -12135,10 +12099,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F302" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12164,10 +12128,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F303" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12193,10 +12157,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F304" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12222,10 +12186,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F305" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12251,10 +12215,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F306" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12280,10 +12244,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="F307" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="G307" t="n">
         <v>2</v>
@@ -12309,10 +12273,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F308" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12338,10 +12302,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F309" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12367,10 +12331,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F310" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12396,10 +12360,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="F311" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12425,10 +12389,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="F312" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12454,10 +12418,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F313" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12483,10 +12447,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F314" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12512,10 +12476,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F315" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12541,10 +12505,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="F316" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12570,10 +12534,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="F317" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12599,10 +12563,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="F318" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12628,10 +12592,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F319" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12657,10 +12621,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F320" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12686,10 +12650,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="F321" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -12715,10 +12679,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="F322" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12744,10 +12708,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="F323" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12773,10 +12737,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F324" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12802,10 +12766,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F325" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12831,10 +12795,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F326" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12860,10 +12824,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F327" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="G327" t="n">
         <v>4</v>
@@ -12889,10 +12853,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F328" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12918,10 +12882,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F329" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12947,10 +12911,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F330" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12976,10 +12940,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F331" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13005,10 +12969,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F332" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13034,10 +12998,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F333" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13063,10 +13027,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F334" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13092,10 +13056,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F335" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13121,10 +13085,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F336" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13150,10 +13114,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F337" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13179,10 +13143,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F338" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13208,10 +13172,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F339" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13237,10 +13201,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F340" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13266,10 +13230,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F341" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13295,10 +13259,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="F342" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="G342" t="n">
         <v>11</v>
@@ -13324,10 +13288,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F343" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13353,10 +13317,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F344" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13382,10 +13346,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F345" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13411,10 +13375,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F346" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13440,10 +13404,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F347" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13469,10 +13433,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="F348" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="G348" t="n">
         <v>2</v>
@@ -13498,10 +13462,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="F349" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13527,10 +13491,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="F350" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13556,10 +13520,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="F351" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13585,10 +13549,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="F352" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13614,10 +13578,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="F353" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13643,10 +13607,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="F354" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13672,10 +13636,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="F355" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13701,10 +13665,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="F356" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13730,10 +13694,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="F357" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13759,10 +13723,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="F358" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="G358" t="n">
         <v>3</v>
@@ -13788,10 +13752,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="F359" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13817,10 +13781,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="F360" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13846,10 +13810,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="F361" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13875,10 +13839,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="F362" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="G362" t="n">
         <v>6</v>
@@ -13904,10 +13868,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="F363" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13933,10 +13897,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="F364" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13962,10 +13926,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="F365" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="G365" t="n">
         <v>3</v>
@@ -13991,10 +13955,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F366" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="G366" t="n">
         <v>2</v>
@@ -14020,10 +13984,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="F367" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="G367" t="n">
         <v>2</v>
@@ -14049,10 +14013,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F368" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="G368" t="n">
         <v>2</v>
@@ -14078,10 +14042,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="F369" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14107,10 +14071,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="F370" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="G370" t="n">
         <v>4</v>
@@ -14136,10 +14100,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="F371" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14165,10 +14129,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="F372" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14194,10 +14158,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="F373" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14223,10 +14187,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="F374" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14252,10 +14216,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="F375" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="G375" t="n">
         <v>2</v>
@@ -14281,10 +14245,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="F376" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14310,10 +14274,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="F377" t="s">
-        <v>678</v>
+        <v>498</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14339,10 +14303,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="F378" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14368,10 +14332,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="F379" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="G379" t="n">
         <v>3</v>
@@ -14397,10 +14361,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="F380" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14426,10 +14390,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="F381" t="s">
-        <v>686</v>
+        <v>448</v>
       </c>
       <c r="G381" t="n">
         <v>2</v>
@@ -14455,10 +14419,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="F382" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="G382" t="n">
         <v>2</v>
@@ -14484,10 +14448,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="F383" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="G383" t="n">
         <v>2</v>
@@ -14513,10 +14477,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="F384" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="G384" t="n">
         <v>2</v>
@@ -14542,10 +14506,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="F385" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="G385" t="n">
         <v>2</v>
@@ -14571,10 +14535,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="F386" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="G386" t="n">
         <v>2</v>
@@ -14600,10 +14564,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="F387" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14629,10 +14593,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="F388" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14658,10 +14622,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="F389" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="G389" t="n">
         <v>4</v>
@@ -14687,10 +14651,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="F390" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="G390" t="n">
         <v>2</v>
@@ -14716,10 +14680,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="F391" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14745,10 +14709,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="F392" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14774,10 +14738,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="F393" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14803,10 +14767,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="F394" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="G394" t="n">
         <v>2</v>
@@ -14832,10 +14796,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="F395" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14861,10 +14825,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="F396" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="G396" t="n">
         <v>2</v>
@@ -14890,10 +14854,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="F397" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14919,10 +14883,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="F398" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="G398" t="n">
         <v>2</v>
@@ -14948,10 +14912,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="F399" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="G399" t="n">
         <v>2</v>
@@ -14977,10 +14941,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="F400" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="G400" t="n">
         <v>3</v>
@@ -15006,10 +14970,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="F401" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="G401" t="n">
         <v>3</v>
@@ -15035,10 +14999,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="F402" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="G402" t="n">
         <v>2</v>
@@ -15064,10 +15028,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="F403" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="G403" t="n">
         <v>2</v>
@@ -15093,10 +15057,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="F404" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15122,10 +15086,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="F405" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15151,10 +15115,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="F406" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15180,10 +15144,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="F407" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="G407" t="n">
         <v>3</v>
@@ -15209,10 +15173,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="F408" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15238,10 +15202,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="F409" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15267,10 +15231,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="F410" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15296,10 +15260,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="F411" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="G411" t="n">
         <v>2</v>
@@ -15325,10 +15289,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="F412" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="G412" t="n">
         <v>2</v>
@@ -15354,10 +15318,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="F413" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15383,10 +15347,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="F414" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="G414" t="n">
         <v>2</v>
@@ -15412,10 +15376,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="F415" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="G415" t="n">
         <v>2</v>
@@ -15441,10 +15405,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="F416" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="G416" t="n">
         <v>2</v>
@@ -15470,10 +15434,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="F417" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15499,10 +15463,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="F418" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15528,10 +15492,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="F419" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15557,10 +15521,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="F420" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="G420" t="n">
         <v>2</v>
@@ -15586,10 +15550,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="F421" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15615,10 +15579,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="F422" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="G422" t="n">
         <v>2</v>
@@ -15644,10 +15608,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="F423" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="G423" t="n">
         <v>3</v>
@@ -15673,10 +15637,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="F424" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="G424" t="n">
         <v>2</v>
@@ -15702,10 +15666,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="F425" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15731,10 +15695,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="F426" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="G426" t="n">
         <v>2</v>
@@ -15760,10 +15724,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="F427" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="G427" t="n">
         <v>2</v>
@@ -15789,10 +15753,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="F428" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="G428" t="n">
         <v>3</v>
@@ -15818,10 +15782,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="F429" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="G429" t="n">
         <v>2</v>
@@ -15847,10 +15811,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="F430" t="s">
-        <v>784</v>
+        <v>211</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15876,10 +15840,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="F431" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15905,10 +15869,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="F432" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15934,10 +15898,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="F433" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15963,10 +15927,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="F434" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="G434" t="n">
         <v>2</v>
@@ -15992,10 +15956,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="F435" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="G435" t="n">
         <v>2</v>
@@ -16021,10 +15985,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="F436" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16050,10 +16014,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="F437" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="G437" t="n">
         <v>2</v>
@@ -16079,10 +16043,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="F438" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16108,10 +16072,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="F439" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16137,10 +16101,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="F440" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16166,10 +16130,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="F441" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16195,10 +16159,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="F442" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16224,10 +16188,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="F443" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16253,10 +16217,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="F444" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="G444" t="n">
         <v>2</v>
@@ -16282,10 +16246,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="F445" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16311,10 +16275,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="F446" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16340,10 +16304,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="F447" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16369,10 +16333,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="F448" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16398,10 +16362,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F449" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G449" t="n">
         <v>2</v>
@@ -16427,10 +16391,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="F450" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="G450" t="n">
         <v>2</v>
@@ -16456,10 +16420,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="F451" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16485,10 +16449,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="F452" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16514,10 +16478,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="F453" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16543,10 +16507,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="F454" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16572,10 +16536,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="F455" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="G455" t="n">
         <v>2</v>
@@ -16601,10 +16565,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="F456" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="G456" t="n">
         <v>2</v>
@@ -16630,10 +16594,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="F457" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="G457" t="n">
         <v>2</v>
@@ -16659,10 +16623,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="F458" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16688,10 +16652,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="F459" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16717,10 +16681,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="F460" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16746,10 +16710,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
       <c r="F461" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="G461" t="n">
         <v>2</v>
@@ -16804,10 +16768,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="F463" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="G463" t="n">
         <v>3</v>
@@ -16833,10 +16797,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="F464" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -16862,10 +16826,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="F465" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16891,10 +16855,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="F466" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16920,10 +16884,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="F467" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -16949,10 +16913,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F468" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G468" t="n">
         <v>2</v>
@@ -16978,10 +16942,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="F469" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17007,10 +16971,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="F470" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17036,10 +17000,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="F471" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17065,10 +17029,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="F472" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17094,10 +17058,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="F473" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17123,10 +17087,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="F474" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17152,10 +17116,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="F475" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17181,10 +17145,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="F476" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17210,10 +17174,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="F477" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17239,10 +17203,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="F478" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17268,10 +17232,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="F479" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17297,10 +17261,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="F480" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17326,10 +17290,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="F481" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17355,10 +17319,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="F482" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17384,10 +17348,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="F483" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17413,10 +17377,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="F484" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17442,10 +17406,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="F485" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17471,10 +17435,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="F486" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17500,10 +17464,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="F487" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17529,10 +17493,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="F488" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17558,10 +17522,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="F489" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17587,10 +17551,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="F490" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17616,10 +17580,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="F491" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17645,10 +17609,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="F492" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17674,10 +17638,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="F493" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17703,10 +17667,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="F494" t="s">
-        <v>888</v>
+        <v>446</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -17732,10 +17696,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="F495" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -17761,10 +17725,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="F496" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="G496" t="n">
         <v>2</v>
@@ -17790,10 +17754,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="F497" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -17819,10 +17783,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="F498" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -17848,10 +17812,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
       <c r="F499" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -17877,10 +17841,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="F500" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="G500" t="n">
         <v>2</v>
@@ -17906,10 +17870,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
       <c r="F501" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -17935,10 +17899,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
       <c r="F502" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -17964,10 +17928,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="F503" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -17993,10 +17957,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="F504" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18022,10 +17986,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="F505" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18051,10 +18015,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="F506" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18080,10 +18044,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="F507" t="s">
-        <v>784</v>
+        <v>211</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18109,10 +18073,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
       <c r="F508" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18138,10 +18102,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="F509" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="G509" t="n">
         <v>3</v>
@@ -18167,10 +18131,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
       <c r="F510" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="G510" t="n">
         <v>19</v>
@@ -18196,10 +18160,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
       <c r="F511" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18225,10 +18189,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
       <c r="F512" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18254,10 +18218,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
       <c r="F513" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18283,10 +18247,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>919</v>
+        <v>907</v>
       </c>
       <c r="F514" t="s">
-        <v>920</v>
+        <v>908</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18312,10 +18276,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
       <c r="F515" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18341,10 +18305,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>923</v>
+        <v>911</v>
       </c>
       <c r="F516" t="s">
-        <v>924</v>
+        <v>912</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18370,10 +18334,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
       <c r="F517" t="s">
-        <v>926</v>
+        <v>914</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18399,10 +18363,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
       <c r="F518" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18428,10 +18392,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="F519" t="s">
-        <v>930</v>
+        <v>918</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18457,10 +18421,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
       <c r="F520" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18486,10 +18450,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="F521" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18515,10 +18479,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F522" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18544,10 +18508,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="F523" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -18573,10 +18537,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="F524" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -18602,10 +18566,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
       <c r="F525" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -18631,10 +18595,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
       <c r="F526" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -18660,10 +18624,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="F527" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -18689,10 +18653,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="F528" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -18718,10 +18682,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="F529" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -18747,10 +18711,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
       <c r="F530" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -18776,10 +18740,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="F531" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -18805,10 +18769,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
       <c r="F532" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -18834,10 +18798,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="F533" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -18863,10 +18827,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="F534" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -18892,10 +18856,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="F535" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -18921,10 +18885,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="F536" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -18950,10 +18914,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="F537" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -18979,10 +18943,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
       <c r="F538" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="G538" t="n">
         <v>2</v>
@@ -19008,10 +18972,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="F539" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19037,10 +19001,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>957</v>
+        <v>945</v>
       </c>
       <c r="F540" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19066,10 +19030,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
       <c r="F541" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19095,10 +19059,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="F542" t="s">
-        <v>962</v>
+        <v>950</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19124,10 +19088,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>963</v>
+        <v>951</v>
       </c>
       <c r="F543" t="s">
-        <v>964</v>
+        <v>952</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19153,10 +19117,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>965</v>
+        <v>953</v>
       </c>
       <c r="F544" t="s">
-        <v>966</v>
+        <v>954</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19182,10 +19146,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="F545" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19211,10 +19175,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="F546" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19240,10 +19204,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="F547" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19269,10 +19233,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="F548" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19298,10 +19262,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>969</v>
+        <v>957</v>
       </c>
       <c r="F549" t="s">
-        <v>970</v>
+        <v>958</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -19327,10 +19291,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>971</v>
+        <v>959</v>
       </c>
       <c r="F550" t="s">
-        <v>972</v>
+        <v>960</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -19356,10 +19320,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="F551" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -19385,10 +19349,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>973</v>
+        <v>961</v>
       </c>
       <c r="F552" t="s">
-        <v>974</v>
+        <v>962</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -19414,10 +19378,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="F553" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -19443,10 +19407,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>975</v>
+        <v>963</v>
       </c>
       <c r="F554" t="s">
-        <v>976</v>
+        <v>964</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -19472,10 +19436,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>977</v>
+        <v>965</v>
       </c>
       <c r="F555" t="s">
-        <v>978</v>
+        <v>966</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -19501,10 +19465,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>979</v>
+        <v>967</v>
       </c>
       <c r="F556" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -19530,10 +19494,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="F557" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -19559,10 +19523,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
       <c r="F558" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -19588,10 +19552,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
       <c r="F559" t="s">
-        <v>984</v>
+        <v>972</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -19617,10 +19581,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>985</v>
+        <v>973</v>
       </c>
       <c r="F560" t="s">
-        <v>986</v>
+        <v>974</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -19646,10 +19610,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
       <c r="F561" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -19675,10 +19639,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
       <c r="F562" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -19704,10 +19668,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="F563" t="s">
-        <v>992</v>
+        <v>980</v>
       </c>
       <c r="G563" t="n">
         <v>3</v>
@@ -19733,10 +19697,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>993</v>
+        <v>981</v>
       </c>
       <c r="F564" t="s">
-        <v>994</v>
+        <v>982</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -19762,10 +19726,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
       <c r="F565" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -19791,10 +19755,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
       <c r="F566" t="s">
-        <v>998</v>
+        <v>986</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -19820,10 +19784,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
       <c r="F567" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -19849,10 +19813,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="F568" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -19878,10 +19842,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="F569" t="s">
-        <v>1004</v>
+        <v>992</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -19907,10 +19871,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
       <c r="F570" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
       <c r="G570" t="n">
         <v>7</v>
@@ -19936,10 +19900,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
       <c r="F571" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
